--- a/VungTrong/SPA_SMOTE/Ket qua phan loai spa ML dao ham bac 2.xlsx
+++ b/VungTrong/SPA_SMOTE/Ket qua phan loai spa ML dao ham bac 2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>precision</t>
   </si>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="B2">
         <v>0.875</v>
       </c>
       <c r="C2">
-        <v>0.9333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1192,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>0.9333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.8571428571428571</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1217,27 +1217,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="C6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="D6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.9166666666666666</v>
+        <v>0.9131944444444444</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="C7">
-        <v>0.880952380952381</v>
+        <v>0.9036239495798319</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.9166666666666666</v>
+        <v>0.9131944444444444</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="C8">
-        <v>0.880952380952381</v>
+        <v>0.9036239495798319</v>
       </c>
       <c r="D8">
         <v>32</v>
